--- a/masks/static/Data/RawData.xlsx
+++ b/masks/static/Data/RawData.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cassius.huang/Desktop/Kivar/Darki/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B28E80-DD87-6442-BC69-9EA549C6BF02}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="980" windowWidth="27840" windowHeight="15900" xr2:uid="{C9F83CE6-9D9F-AF4E-813D-E6CBB209F599}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$140</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="229">
+  <si>
+    <t>脸谱名称</t>
+  </si>
+  <si>
+    <t>收集属性</t>
+  </si>
   <si>
     <t>宽和</t>
   </si>
@@ -99,813 +110,630 @@
     <t>威望</t>
   </si>
   <si>
+    <t>颜色</t>
+  </si>
+  <si>
+    <t>博学雅士</t>
+  </si>
+  <si>
+    <t>最小攻击+1，内力值+200</t>
+  </si>
+  <si>
+    <t>紫</t>
+  </si>
+  <si>
+    <t>沉鱼落雁</t>
+  </si>
+  <si>
+    <t>劲/气+2内力值100</t>
+  </si>
+  <si>
+    <t>赤练杀星</t>
+  </si>
+  <si>
+    <t>劲/气+3</t>
+  </si>
+  <si>
+    <t>赤子之心</t>
+  </si>
+  <si>
+    <t>外防御+4</t>
+  </si>
+  <si>
+    <t>德高望重</t>
+  </si>
+  <si>
+    <t>暴击+4</t>
+  </si>
+  <si>
+    <t>浪迹天涯</t>
+  </si>
+  <si>
+    <t>最小攻击+1</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>风花雪月</t>
+  </si>
+  <si>
+    <t>最大攻击+1</t>
+  </si>
+  <si>
+    <t>心如止水</t>
+  </si>
+  <si>
+    <t>桀骜不驯</t>
+  </si>
+  <si>
+    <t>平易近人</t>
+  </si>
+  <si>
+    <t>一针见血</t>
+  </si>
+  <si>
+    <t>八面玲珑</t>
+  </si>
+  <si>
+    <t>正人君子</t>
+  </si>
+  <si>
+    <t>最大攻击+2</t>
+  </si>
+  <si>
+    <t>绿</t>
+  </si>
+  <si>
+    <t>十恶不赦</t>
+  </si>
+  <si>
+    <t>宽宏大度</t>
+  </si>
+  <si>
+    <t>暴击+2</t>
+  </si>
+  <si>
+    <t>为苍生</t>
+  </si>
+  <si>
+    <t>浮生尽</t>
+  </si>
+  <si>
+    <t>爆抗+2</t>
+  </si>
+  <si>
+    <t>灯火人间</t>
+  </si>
+  <si>
+    <t>冷若冰霜</t>
+  </si>
+  <si>
+    <t>内防御+2</t>
+  </si>
+  <si>
+    <t>出类拔萃</t>
+  </si>
+  <si>
+    <t>劲/气+1</t>
+  </si>
+  <si>
+    <t>俊逸佳郎</t>
+  </si>
+  <si>
+    <t>幸运儿</t>
+  </si>
+  <si>
+    <t>敏+2</t>
+  </si>
+  <si>
+    <t>天真无邪</t>
+  </si>
+  <si>
+    <t>高大威猛</t>
+  </si>
+  <si>
+    <t>外防御+2</t>
+  </si>
+  <si>
+    <t>义薄云天</t>
+  </si>
+  <si>
+    <t>凶神恶煞</t>
+  </si>
+  <si>
+    <t>最小攻击+2</t>
+  </si>
+  <si>
+    <t>锋芒毕露</t>
+  </si>
+  <si>
+    <t>壮志凌云</t>
+  </si>
+  <si>
+    <t>玉面佛</t>
+  </si>
+  <si>
+    <t>多愁善感</t>
+  </si>
+  <si>
+    <t>登徒子</t>
+  </si>
+  <si>
+    <t>温文尔雅</t>
+  </si>
+  <si>
+    <t>内力值200，最小攻击+1</t>
+  </si>
+  <si>
+    <t>一诺千金</t>
+  </si>
+  <si>
+    <t>气血100</t>
+  </si>
+  <si>
+    <t>风趣幽默</t>
+  </si>
+  <si>
+    <t>体+2</t>
+  </si>
+  <si>
+    <t>风云人物</t>
+  </si>
+  <si>
+    <t>冰清玉洁</t>
+  </si>
+  <si>
+    <t>平凡客</t>
+  </si>
+  <si>
+    <t>御+2</t>
+  </si>
+  <si>
+    <t>未卜先知</t>
+  </si>
+  <si>
+    <t>生龙活虎</t>
+  </si>
+  <si>
+    <t>弱柳扶风</t>
+  </si>
+  <si>
+    <t>碧血丹心</t>
+  </si>
+  <si>
+    <t>最大攻击+4</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>以杀止杀</t>
+  </si>
+  <si>
+    <t>逍遥游</t>
+  </si>
+  <si>
+    <t>体+3</t>
+  </si>
+  <si>
+    <t>怜香惜玉</t>
+  </si>
+  <si>
+    <t>外防御+3</t>
+  </si>
+  <si>
+    <t>求不得</t>
+  </si>
+  <si>
+    <t>寂寞千秋</t>
+  </si>
+  <si>
+    <t>内防御+3</t>
+  </si>
+  <si>
+    <t>坐怀不乱</t>
+  </si>
+  <si>
+    <t>守身如玉</t>
+  </si>
+  <si>
+    <t>薄情寡义</t>
+  </si>
+  <si>
+    <t>游戏人间</t>
+  </si>
+  <si>
+    <t>气血125</t>
+  </si>
+  <si>
+    <t>飞扬跋扈</t>
+  </si>
+  <si>
+    <t>爆抗+3</t>
+  </si>
+  <si>
+    <t>楚楚可怜</t>
+  </si>
+  <si>
+    <t>气血125，外防御+3</t>
+  </si>
+  <si>
+    <t>泰然自若</t>
+  </si>
+  <si>
+    <t>老好人</t>
+  </si>
+  <si>
+    <t>最小攻击+4</t>
+  </si>
+  <si>
+    <t>光明磊落</t>
+  </si>
+  <si>
+    <t>恃才傲物</t>
+  </si>
+  <si>
+    <t>德才兼备</t>
+  </si>
+  <si>
+    <t>百晓生</t>
+  </si>
+  <si>
+    <t>攻击最小+12</t>
+  </si>
+  <si>
+    <t>武林新秀</t>
+  </si>
+  <si>
+    <t>劲/气+2</t>
+  </si>
+  <si>
+    <t>吉星高照</t>
+  </si>
+  <si>
+    <t>明察秋毫</t>
+  </si>
+  <si>
+    <t>冰雪聪明</t>
+  </si>
+  <si>
+    <t>敏+3</t>
+  </si>
+  <si>
+    <t>侠之大者</t>
+  </si>
+  <si>
+    <t>国士无双</t>
+  </si>
+  <si>
+    <t>丧心病狂</t>
+  </si>
+  <si>
+    <t>魑魅魍魉</t>
+  </si>
+  <si>
+    <t>气吞山河</t>
+  </si>
+  <si>
+    <t>普度众生</t>
+  </si>
+  <si>
+    <t>体+2，敏+1</t>
+  </si>
+  <si>
+    <t>醉饮山林</t>
+  </si>
+  <si>
+    <t>御+3</t>
+  </si>
+  <si>
+    <t>断袖之癖</t>
+  </si>
+  <si>
+    <t>多情浪子</t>
+  </si>
+  <si>
+    <t>内防御+2，外防御+2</t>
+  </si>
+  <si>
+    <t>放荡不羁</t>
+  </si>
+  <si>
+    <t>傲视群雄</t>
+  </si>
+  <si>
+    <t>御+2，敏+1</t>
+  </si>
+  <si>
+    <t>爱憎分明</t>
+  </si>
+  <si>
+    <t>笑里藏刀</t>
+  </si>
+  <si>
+    <t>钟灵毓秀</t>
+  </si>
+  <si>
+    <t>长袖善舞</t>
+  </si>
+  <si>
+    <t>劲/气+1内力值100</t>
+  </si>
+  <si>
+    <t>举世无双</t>
+  </si>
+  <si>
+    <t>威风凛凛</t>
+  </si>
+  <si>
+    <t>暴击+3</t>
+  </si>
+  <si>
+    <t>阅尽世间愁</t>
+  </si>
+  <si>
+    <t>地势坤</t>
+  </si>
+  <si>
+    <t>气血150</t>
+  </si>
+  <si>
+    <t>刁蛮任性</t>
+  </si>
+  <si>
+    <t>敏+4</t>
+  </si>
+  <si>
+    <t>对酒当歌</t>
+  </si>
+  <si>
+    <t>夺命无常</t>
+  </si>
+  <si>
+    <t>御+4</t>
+  </si>
+  <si>
+    <t>风流倜傥</t>
+  </si>
+  <si>
+    <t>盖世英雄</t>
+  </si>
+  <si>
+    <t>最小攻击+6</t>
+  </si>
+  <si>
+    <t>功德无量</t>
+  </si>
+  <si>
+    <t>沽名钓誉</t>
+  </si>
+  <si>
+    <t>爆抗+4</t>
+  </si>
+  <si>
+    <t>鬼灵精怪</t>
+  </si>
+  <si>
+    <t>红颜祸水</t>
+  </si>
+  <si>
+    <t>绝世妖姬</t>
+  </si>
+  <si>
+    <t>看破红尘</t>
+  </si>
+  <si>
+    <t>内防御+4</t>
+  </si>
+  <si>
+    <t>力拔山兮</t>
+  </si>
+  <si>
+    <t>六道轮回</t>
+  </si>
+  <si>
+    <t>气血100，内力值100</t>
+  </si>
+  <si>
+    <t>满腹经纶</t>
+  </si>
+  <si>
+    <t>盟主</t>
+  </si>
+  <si>
+    <t>名动八方</t>
+  </si>
+  <si>
+    <t>魔头</t>
+  </si>
+  <si>
+    <t>平步青云</t>
+  </si>
+  <si>
+    <t>仁者无敌</t>
+  </si>
+  <si>
+    <t>体+4</t>
+  </si>
+  <si>
+    <t>忍辱负重</t>
+  </si>
+  <si>
+    <t>深不可测</t>
+  </si>
+  <si>
+    <t>神机妙算</t>
+  </si>
+  <si>
+    <t>世外高人</t>
+  </si>
+  <si>
+    <t>噬血狂魔</t>
+  </si>
+  <si>
+    <t>天下第一</t>
+  </si>
+  <si>
+    <t>天行健</t>
+  </si>
+  <si>
+    <t>铁面无私</t>
+  </si>
+  <si>
+    <t>万古千秋</t>
+  </si>
+  <si>
+    <t>气血+240</t>
+  </si>
+  <si>
+    <t>万骨枯</t>
+  </si>
+  <si>
+    <t>唯我独尊</t>
+  </si>
+  <si>
     <t>侠义豪杰</t>
   </si>
   <si>
-    <t>攻击最大+5</t>
-  </si>
-  <si>
-    <t>绝世妖姬</t>
-  </si>
-  <si>
-    <t>天下第一</t>
-  </si>
-  <si>
-    <t>暴击+7</t>
-  </si>
-  <si>
-    <t>世外高人</t>
-  </si>
-  <si>
-    <t>格挡+14</t>
-  </si>
-  <si>
-    <t>浪迹天涯</t>
-  </si>
-  <si>
-    <t>风花雪月</t>
-  </si>
-  <si>
-    <t>外防+3</t>
-  </si>
-  <si>
-    <t>心如止水</t>
-  </si>
-  <si>
-    <t>内防+3</t>
-  </si>
-  <si>
-    <t>桀骜不驯</t>
-  </si>
-  <si>
-    <t>命中+14</t>
-  </si>
-  <si>
-    <t>平易近人</t>
-  </si>
-  <si>
-    <t>一针见血</t>
-  </si>
-  <si>
-    <t>攻击最小+5</t>
-  </si>
-  <si>
-    <t>八面玲珑</t>
-  </si>
-  <si>
-    <t>博学雅士</t>
-  </si>
-  <si>
-    <t>正人君子</t>
-  </si>
-  <si>
-    <t>攻击最大+8</t>
-  </si>
-  <si>
-    <t>龙睁虎眼</t>
-  </si>
-  <si>
-    <t>宽宏大度</t>
-  </si>
-  <si>
-    <t>暴击+7 命中+14</t>
-  </si>
-  <si>
-    <t>为苍生</t>
-  </si>
-  <si>
-    <t>暴击+10</t>
-  </si>
-  <si>
-    <t>浮生尽</t>
-  </si>
-  <si>
-    <t>格挡+20</t>
-  </si>
-  <si>
-    <t>灯火人间</t>
-  </si>
-  <si>
-    <t>冷若冰霜</t>
-  </si>
-  <si>
-    <t>内防+5</t>
-  </si>
-  <si>
-    <t>出类拔萃</t>
-  </si>
-  <si>
-    <t>气血+70 劲/气+2</t>
-  </si>
-  <si>
-    <t>俊逸佳郎</t>
-  </si>
-  <si>
-    <t>攻击最大+5 格挡+14</t>
-  </si>
-  <si>
-    <t>幸运儿</t>
-  </si>
-  <si>
-    <t>体+3 敏+3</t>
-  </si>
-  <si>
-    <t>天真无邪</t>
-  </si>
-  <si>
-    <t>敏+5</t>
-  </si>
-  <si>
-    <t>高大威猛</t>
-  </si>
-  <si>
-    <t>外防+5</t>
-  </si>
-  <si>
-    <t>义薄云天</t>
-  </si>
-  <si>
-    <t>攻击最大+9</t>
-  </si>
-  <si>
-    <t>强梁顽人</t>
-  </si>
-  <si>
-    <t>锋芒毕露</t>
-  </si>
-  <si>
-    <t>暴击+10 命中+14</t>
-  </si>
-  <si>
-    <t>壮志凌云</t>
-  </si>
-  <si>
-    <t>暴击+12</t>
-  </si>
-  <si>
-    <t>玉面佛</t>
-  </si>
-  <si>
-    <t>多愁善感</t>
-  </si>
-  <si>
-    <t>外防+5 格挡+14</t>
-  </si>
-  <si>
-    <t>风月闲人</t>
-  </si>
-  <si>
-    <t>命中+20 内防+3</t>
-  </si>
-  <si>
-    <t>温文尔雅</t>
-  </si>
-  <si>
-    <t>命中+20 攻击最小+5</t>
-  </si>
-  <si>
-    <t>一诺千金</t>
-  </si>
-  <si>
-    <t>攻击最小+9</t>
-  </si>
-  <si>
-    <t>风趣幽默</t>
-  </si>
-  <si>
-    <t>攻击最小+13</t>
-  </si>
-  <si>
-    <t>风云人物</t>
-  </si>
-  <si>
-    <t>气血+120</t>
-  </si>
-  <si>
-    <t>冰清玉洁</t>
-  </si>
-  <si>
-    <t>攻击最大+13</t>
-  </si>
-  <si>
-    <t>平凡客</t>
-  </si>
-  <si>
-    <t>御+3 劲/气+2 敏+3</t>
-  </si>
-  <si>
-    <t>未卜先知</t>
+    <t>仙风道骨</t>
+  </si>
+  <si>
+    <t>玉面修罗</t>
+  </si>
+  <si>
+    <t>玉树临风</t>
+  </si>
+  <si>
+    <t>左右逢源</t>
+  </si>
+  <si>
+    <t>冰山美人</t>
+  </si>
+  <si>
+    <t>内防御+6</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>不可一世</t>
+  </si>
+  <si>
+    <t>爆抗+5</t>
+  </si>
+  <si>
+    <t>大道长存</t>
   </si>
   <si>
     <t>体+6</t>
   </si>
   <si>
-    <t>生龙活虎</t>
-  </si>
-  <si>
-    <t>外防+6</t>
-  </si>
-  <si>
-    <t>弱柳扶风</t>
-  </si>
-  <si>
-    <t>外防+6 命中+14</t>
-  </si>
-  <si>
-    <t>碧血丹心</t>
-  </si>
-  <si>
-    <t>攻击最大+12</t>
-  </si>
-  <si>
-    <t>止戈为武</t>
-  </si>
-  <si>
-    <t>暴击+12 攻击最大+5</t>
-  </si>
-  <si>
-    <t>逍遥游</t>
-  </si>
-  <si>
-    <t>格挡+25 体+3</t>
-  </si>
-  <si>
-    <t>怜香惜玉</t>
-  </si>
-  <si>
-    <t>求不得</t>
-  </si>
-  <si>
-    <t>外防+5 攻击最小+8</t>
-  </si>
-  <si>
-    <t>寂寞千秋</t>
-  </si>
-  <si>
-    <t>内防+5 格挡+20</t>
-  </si>
-  <si>
-    <t>坐怀不乱</t>
-  </si>
-  <si>
-    <t>内防+6 攻击最大+5</t>
-  </si>
-  <si>
-    <t>守身如玉</t>
-  </si>
-  <si>
-    <t>内防+6 攻击最小+5</t>
-  </si>
-  <si>
-    <t>薄情寡义</t>
-  </si>
-  <si>
-    <t>内防+8</t>
-  </si>
-  <si>
-    <t>游戏人间</t>
-  </si>
-  <si>
-    <t>命中+20 格挡+20</t>
-  </si>
-  <si>
-    <t>飞扬跋扈</t>
-  </si>
-  <si>
-    <t>命中+25 暴击+7</t>
-  </si>
-  <si>
-    <t>楚楚可怜</t>
-  </si>
-  <si>
-    <t>命中+25 外防+3</t>
-  </si>
-  <si>
-    <t>泰然自若</t>
-  </si>
-  <si>
-    <t>命中+32</t>
-  </si>
-  <si>
-    <t>老好人</t>
-  </si>
-  <si>
-    <t>命中+25 攻击最小+5</t>
-  </si>
-  <si>
-    <t>光明磊落</t>
-  </si>
-  <si>
-    <t>攻击最大/最小+8</t>
-  </si>
-  <si>
-    <t>恃才傲物</t>
-  </si>
-  <si>
-    <t>攻击最小+8 命中+20</t>
-  </si>
-  <si>
-    <t>德才兼备</t>
-  </si>
-  <si>
-    <t>攻击最小+9 暴击+7</t>
-  </si>
-  <si>
-    <t>百晓生</t>
-  </si>
-  <si>
-    <t>攻击最小+12</t>
-  </si>
-  <si>
-    <t>武林新秀</t>
-  </si>
-  <si>
-    <t>劲/气+3 敏+5</t>
-  </si>
-  <si>
-    <t>吉星高照</t>
-  </si>
-  <si>
-    <t>体+8</t>
-  </si>
-  <si>
-    <t>明察秋毫</t>
-  </si>
-  <si>
-    <t>体+5 外防+5</t>
-  </si>
-  <si>
-    <t>冰雪聪明</t>
-  </si>
-  <si>
-    <t>敏+6 攻击最小+5</t>
-  </si>
-  <si>
-    <t>侠之大者</t>
-  </si>
-  <si>
-    <t>攻击最大/最小+8 暴击+7</t>
-  </si>
-  <si>
-    <t>国士无双</t>
-  </si>
-  <si>
-    <t>攻击最大+9 最小+8</t>
-  </si>
-  <si>
-    <t>悖逆狂谲</t>
-  </si>
-  <si>
-    <t>攻击最大+12 内防+3</t>
-  </si>
-  <si>
-    <t>魑魅魍魉</t>
-  </si>
-  <si>
-    <t>攻击最大+15</t>
-  </si>
-  <si>
-    <t>气吞山河</t>
-  </si>
-  <si>
-    <t>暴击+16 敏+3</t>
-  </si>
-  <si>
-    <t>普度众生</t>
-  </si>
-  <si>
-    <t>暴击+20</t>
-  </si>
-  <si>
-    <t>醉饮山林</t>
-  </si>
-  <si>
-    <t>格挡+25 外防+5</t>
-  </si>
-  <si>
-    <t>心悦君兮</t>
-  </si>
-  <si>
-    <t>外防+6 命中+14 格挡+14</t>
-  </si>
-  <si>
-    <t>多情浪子</t>
-  </si>
-  <si>
-    <t>外防+10</t>
-  </si>
-  <si>
-    <t>放荡不羁</t>
-  </si>
-  <si>
-    <t>命中+32 攻击最大+5</t>
-  </si>
-  <si>
-    <t>傲视群雄</t>
-  </si>
-  <si>
-    <t>命中+40</t>
-  </si>
-  <si>
-    <t>爱憎分明</t>
-  </si>
-  <si>
-    <t>攻击最小+12 命中+14</t>
-  </si>
-  <si>
-    <t>笑里藏刀</t>
-  </si>
-  <si>
-    <t>攻击最小+9 最大+5 暴击+7</t>
-  </si>
-  <si>
-    <t>钟灵毓秀</t>
-  </si>
-  <si>
-    <t>攻击最小+12 劲/气+2</t>
-  </si>
-  <si>
-    <t>长袖善舞</t>
-  </si>
-  <si>
-    <t>攻击最小+15</t>
-  </si>
-  <si>
-    <t>举世无双</t>
-  </si>
-  <si>
-    <t>气血+200</t>
-  </si>
-  <si>
-    <t>威风凛凛</t>
-  </si>
-  <si>
-    <t>攻击最大+9 暴击+10</t>
-  </si>
-  <si>
-    <t>阅尽世间愁</t>
-  </si>
-  <si>
-    <t>攻击最小+9 外防+5</t>
-  </si>
-  <si>
-    <t>盖世英雄</t>
-  </si>
-  <si>
-    <t>攻击最大+18</t>
-  </si>
-  <si>
-    <t>玉面修罗</t>
-  </si>
-  <si>
-    <t>攻击最大+20</t>
-  </si>
-  <si>
-    <t>红莲赤练</t>
-  </si>
-  <si>
-    <t>唯我独尊</t>
-  </si>
-  <si>
-    <t>暴击+25</t>
-  </si>
-  <si>
-    <t>忍辱负重</t>
-  </si>
-  <si>
-    <t>暴击+12 攻击最小+9</t>
-  </si>
-  <si>
-    <t>德高望重</t>
-  </si>
-  <si>
-    <t>暴击+16 气血+100</t>
-  </si>
-  <si>
-    <t>功德无量</t>
-  </si>
-  <si>
-    <t>看破红尘</t>
-  </si>
-  <si>
-    <t>格挡+32 内防+5</t>
-  </si>
-  <si>
-    <t>仙风道骨</t>
-  </si>
-  <si>
-    <t>格挡+40 攻击最大+5</t>
-  </si>
-  <si>
-    <t>深不可测</t>
-  </si>
-  <si>
-    <t>格挡+50</t>
-  </si>
-  <si>
-    <t>平步青云</t>
-  </si>
-  <si>
-    <t>格挡+32 体+5</t>
-  </si>
-  <si>
-    <t>对酒当歌</t>
-  </si>
-  <si>
-    <t>风流倜傥</t>
-  </si>
-  <si>
-    <t>外防+12</t>
-  </si>
-  <si>
-    <t>赤子之心</t>
-  </si>
-  <si>
-    <t>攻击最小+18</t>
-  </si>
-  <si>
-    <t>左右逢源</t>
-  </si>
-  <si>
-    <t>攻击最小+9 体+6</t>
-  </si>
-  <si>
-    <t>沽名钓誉</t>
-  </si>
-  <si>
-    <t>气血+100 攻击最大+8 最小+8</t>
-  </si>
-  <si>
-    <t>名动八方</t>
-  </si>
-  <si>
-    <t>气血+160 攻击最大+8</t>
-  </si>
-  <si>
-    <t>万古千秋</t>
-  </si>
-  <si>
-    <t>气血+240</t>
-  </si>
-  <si>
-    <t>红颜祸水</t>
-  </si>
-  <si>
-    <t>攻击最大+9 最小+9</t>
-  </si>
-  <si>
-    <t>满腹经纶</t>
-  </si>
-  <si>
-    <t>天行健</t>
-  </si>
-  <si>
-    <t>敏+5 御+8</t>
-  </si>
-  <si>
-    <t>地势坤</t>
-  </si>
-  <si>
-    <t>敏+8 御+5</t>
-  </si>
-  <si>
-    <t>六道轮回</t>
-  </si>
-  <si>
-    <t>体+12</t>
-  </si>
-  <si>
-    <t>刁蛮任性</t>
-  </si>
-  <si>
-    <t>敏+8 命中+20</t>
-  </si>
-  <si>
-    <t>鬼灵精怪</t>
-  </si>
-  <si>
-    <t>敏+12</t>
-  </si>
-  <si>
-    <t>力拔山兮</t>
-  </si>
-  <si>
-    <t>盟主</t>
-  </si>
-  <si>
-    <t>体+10 攻击最大+8</t>
-  </si>
-  <si>
-    <t>夺命无常</t>
-  </si>
-  <si>
-    <t>攻击最大+15 暴击+10</t>
-  </si>
-  <si>
-    <t>顽世</t>
-  </si>
-  <si>
-    <t>体+8 攻击最大+9</t>
-  </si>
-  <si>
-    <t>风风火火</t>
-  </si>
-  <si>
-    <t>暴击+20 攻击最大+8</t>
-  </si>
-  <si>
-    <t>万古枯</t>
-  </si>
-  <si>
-    <t>暴击+28</t>
-  </si>
-  <si>
-    <t>仁者无敌</t>
-  </si>
-  <si>
-    <t>暴击+20 敏+5</t>
-  </si>
-  <si>
-    <t>铁面无私</t>
-  </si>
-  <si>
-    <t>攻击最小+15 内防+5</t>
-  </si>
-  <si>
-    <t>沉鱼落雁</t>
-  </si>
-  <si>
-    <t>攻击最大+15 劲/气+3</t>
-  </si>
-  <si>
-    <t>玉树临风</t>
-  </si>
-  <si>
-    <t>攻击最大+15 最小+8</t>
-  </si>
-  <si>
-    <t>神机妙算</t>
-  </si>
-  <si>
-    <t>攻击最小+15 体+5</t>
+    <t>芳华一梦</t>
+  </si>
+  <si>
+    <t>御+6</t>
+  </si>
+  <si>
+    <t>放浪形骸</t>
+  </si>
+  <si>
+    <t>外防御+6</t>
+  </si>
+  <si>
+    <t>飞黄腾达</t>
+  </si>
+  <si>
+    <t>风度翩翩</t>
+  </si>
+  <si>
+    <t>暴击+5</t>
+  </si>
+  <si>
+    <t>风华绝代</t>
+  </si>
+  <si>
+    <t>高朋满座</t>
+  </si>
+  <si>
+    <t>气血200</t>
+  </si>
+  <si>
+    <t>豪气干云</t>
+  </si>
+  <si>
+    <t>敏+6</t>
+  </si>
+  <si>
+    <t>厚颜无耻</t>
+  </si>
+  <si>
+    <t>绝情罗刹</t>
+  </si>
+  <si>
+    <t>魅惑众生</t>
+  </si>
+  <si>
+    <t>千娇百媚</t>
+  </si>
+  <si>
+    <t>最大攻击+6</t>
+  </si>
+  <si>
+    <t>清风明月</t>
+  </si>
+  <si>
+    <t>深谷幽兰</t>
+  </si>
+  <si>
+    <t>天人合一</t>
+  </si>
+  <si>
+    <t>劲/气+4 内力值+50</t>
   </si>
   <si>
     <t>万古流芳</t>
   </si>
   <si>
-    <t>攻击最大+15 气血+120</t>
-  </si>
-  <si>
-    <t>清风明月</t>
-  </si>
-  <si>
-    <t>攻击最大+12 外防+8</t>
-  </si>
-  <si>
-    <t>千娇百媚</t>
-  </si>
-  <si>
-    <t>外防+8 攻击最大+9/最小+5</t>
-  </si>
-  <si>
-    <t>冰山美人</t>
-  </si>
-  <si>
-    <t>内防+10 攻击最大+9</t>
-  </si>
-  <si>
-    <t>风度翩翩</t>
-  </si>
-  <si>
-    <t>命中+40 暴击+10 攻击最大+5</t>
-  </si>
-  <si>
-    <t>世人弗及</t>
-  </si>
-  <si>
-    <t>内防+8 攻击最大+8 最小+8</t>
+    <t>我主沉浮</t>
+  </si>
+  <si>
+    <t>劲/气+5</t>
+  </si>
+  <si>
+    <t>虚怀若谷</t>
   </si>
   <si>
     <t>运筹帷幄</t>
   </si>
   <si>
-    <t>内防+12 攻击最小+8</t>
-  </si>
-  <si>
-    <t>放浪形骸</t>
-  </si>
-  <si>
-    <t>格挡+40 命中+25 内防+3</t>
-  </si>
-  <si>
-    <t>绝情罗刹</t>
-  </si>
-  <si>
-    <t>内防+12 攻击最大+9</t>
-  </si>
-  <si>
-    <t>不可一世</t>
-  </si>
-  <si>
-    <t>命中+50 气血+120</t>
-  </si>
-  <si>
-    <t>虚怀若谷</t>
-  </si>
-  <si>
-    <t>命中+50 攻击最大+9</t>
-  </si>
-  <si>
-    <t>高朋满座</t>
-  </si>
-  <si>
-    <t>内防+6 攻击最小+18</t>
-  </si>
-  <si>
-    <t>魅惑众生</t>
-  </si>
-  <si>
-    <t>攻击最大+21 命中+20</t>
-  </si>
-  <si>
-    <t>风华绝代</t>
-  </si>
-  <si>
-    <t>攻击最大+18 气血+120</t>
-  </si>
-  <si>
-    <t>我主沉浮</t>
-  </si>
-  <si>
-    <t>劲/气+6 御+6</t>
-  </si>
-  <si>
-    <t>豪气干云</t>
-  </si>
-  <si>
-    <t>内防+6 攻击最大/最小+9</t>
-  </si>
-  <si>
-    <t>飞黄腾达</t>
-  </si>
-  <si>
-    <t>格挡+50 内防+5 气血+100</t>
-  </si>
-  <si>
-    <t>芳华一梦</t>
-  </si>
-  <si>
-    <t>外防+8 格挡+25 命中+25</t>
-  </si>
-  <si>
     <t>智绝天下</t>
   </si>
   <si>
-    <t>攻击最小+18 气血+160</t>
-  </si>
-  <si>
-    <t>深谷幽兰</t>
-  </si>
-  <si>
-    <t>攻击最大+12 敏+12</t>
-  </si>
-  <si>
-    <t>大道长存</t>
-  </si>
-  <si>
-    <t>攻击最小+18 暴击+16 气血+100</t>
-  </si>
-  <si>
-    <t>天人合一</t>
-  </si>
-  <si>
-    <t>劲/气+12</t>
+    <t>敏+5内力值50</t>
   </si>
   <si>
     <t>纵横天下</t>
   </si>
   <si>
-    <t>劲/气+8 御+12</t>
-  </si>
-  <si>
-    <t>脸谱名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>劲/气+3 内力值100 敏+1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -914,22 +742,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00CCFF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -937,7 +756,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -945,7 +763,6 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -953,7 +770,6 @@
       <sz val="11"/>
       <color rgb="FF339966"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -961,7 +777,6 @@
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -969,7 +784,13 @@
       <sz val="11"/>
       <color rgb="FF666699"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -977,11 +798,161 @@
       <sz val="11"/>
       <color rgb="FFFFCC00"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -994,8 +965,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1003,17 +1160,262 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1025,39 +1427,83 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1106,7 +1552,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1139,26 +1585,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1191,23 +1620,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1349,118 +1761,114 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBF0CC3-3015-194E-A794-BC0875B4CA47}">
-  <dimension ref="A1:Z140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>288</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" hidden="1" spans="1:27">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2">
-        <v>30</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
@@ -1476,7 +1884,9 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="S2" s="1">
+        <v>60</v>
+      </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -1484,18 +1894,19 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" hidden="1" spans="1:27">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="3">
-        <v>30</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
@@ -1506,7 +1917,9 @@
       <c r="L3" s="3"/>
       <c r="M3" s="2"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="1"/>
+      <c r="O3" s="1">
+        <v>160</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1514,24 +1927,29 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
+      <c r="W3" s="1">
+        <v>1280</v>
+      </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" hidden="1" spans="1:27">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>960</v>
+      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="3">
-        <v>30</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
       <c r="I4" s="2"/>
@@ -1552,27 +1970,30 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" hidden="1" spans="1:27">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="2">
-        <v>30</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="3"/>
       <c r="I5" s="2"/>
       <c r="J5" s="3"/>
       <c r="K5" s="2"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2">
+        <v>960</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1586,22 +2007,25 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
+      <c r="AA5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="1:27">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>320</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="3">
-        <v>30</v>
-      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="2"/>
       <c r="J6" s="3"/>
       <c r="K6" s="2"/>
@@ -1617,26 +2041,31 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
+      <c r="X6" s="1">
+        <v>160</v>
+      </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" spans="1:27">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2">
+      <c r="H7" s="3">
         <v>30</v>
       </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="3"/>
       <c r="K7" s="2"/>
       <c r="L7" s="3"/>
@@ -1654,13 +2083,16 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" spans="1:27">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
@@ -1668,10 +2100,10 @@
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="3">
+      <c r="I8" s="2">
         <v>30</v>
       </c>
+      <c r="J8" s="3"/>
       <c r="K8" s="2"/>
       <c r="L8" s="3"/>
       <c r="M8" s="2"/>
@@ -1688,13 +2120,16 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" hidden="1" spans="1:27">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
@@ -1703,11 +2138,11 @@
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3">
+        <v>30</v>
+      </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="3">
-        <v>30</v>
-      </c>
+      <c r="L9" s="3"/>
       <c r="M9" s="2"/>
       <c r="N9" s="3"/>
       <c r="O9" s="1"/>
@@ -1722,13 +2157,16 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" hidden="1" spans="1:27">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
@@ -1738,10 +2176,10 @@
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="2">
+      <c r="K10" s="2"/>
+      <c r="L10" s="3">
         <v>30</v>
       </c>
-      <c r="L10" s="3"/>
       <c r="M10" s="2"/>
       <c r="N10" s="3"/>
       <c r="O10" s="1"/>
@@ -1756,13 +2194,16 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" hidden="1" spans="1:27">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
@@ -1772,11 +2213,11 @@
       <c r="H11" s="3"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <v>30</v>
+      </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="2">
-        <v>30</v>
-      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="3"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1790,13 +2231,16 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" hidden="1" spans="1:27">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -1808,10 +2252,10 @@
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="3">
+      <c r="M12" s="2">
         <v>30</v>
       </c>
+      <c r="N12" s="3"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1824,13 +2268,16 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="AA12" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="13" hidden="1" spans="1:27">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
@@ -1843,14 +2290,14 @@
       <c r="K13" s="2"/>
       <c r="L13" s="3"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="3"/>
+      <c r="N13" s="3">
+        <v>30</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1">
-        <v>60</v>
-      </c>
+      <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -1858,13 +2305,16 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" hidden="1" spans="1:27">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2">
         <v>80</v>
@@ -1892,13 +2342,16 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" hidden="1" spans="1:27">
       <c r="A15" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3">
@@ -1926,13 +2379,16 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" hidden="1" spans="1:27">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
@@ -1962,13 +2418,16 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" spans="1:27">
       <c r="A17" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
@@ -1996,13 +2455,16 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" hidden="1" spans="1:27">
       <c r="A18" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
@@ -2030,13 +2492,16 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" hidden="1" spans="1:27">
       <c r="A19" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
@@ -2064,13 +2529,16 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" spans="1:27">
       <c r="A20" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
@@ -2098,13 +2566,16 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" spans="1:27">
       <c r="A21" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
@@ -2134,13 +2605,16 @@
       </c>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" hidden="1" spans="1:27">
       <c r="A22" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
@@ -2170,13 +2644,16 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" hidden="1" spans="1:27">
       <c r="A23" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
@@ -2206,13 +2683,16 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" spans="1:27">
       <c r="A24" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
@@ -2240,13 +2720,16 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" hidden="1" spans="1:27">
       <c r="A25" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
@@ -2274,13 +2757,16 @@
         <v>160</v>
       </c>
       <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" spans="1:27">
       <c r="A26" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2">
         <v>160</v>
@@ -2308,13 +2794,16 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" hidden="1" spans="1:27">
       <c r="A27" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3">
@@ -2342,13 +2831,16 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" hidden="1" spans="1:27">
       <c r="A28" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
@@ -2378,13 +2870,16 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:27">
       <c r="A29" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
@@ -2412,13 +2907,16 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" spans="1:27">
       <c r="A30" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
@@ -2446,13 +2944,16 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" hidden="1" spans="1:27">
       <c r="A31" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
@@ -2482,13 +2983,16 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" hidden="1" spans="1:27">
       <c r="A32" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
@@ -2518,13 +3022,16 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" hidden="1" spans="1:27">
       <c r="A33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
@@ -2554,13 +3061,16 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" hidden="1" spans="1:27">
       <c r="A34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
@@ -2588,13 +3098,16 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" hidden="1" spans="1:27">
       <c r="A35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
@@ -2624,13 +3137,16 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" hidden="1" spans="1:27">
       <c r="A36" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
@@ -2658,13 +3174,16 @@
       </c>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" hidden="1" spans="1:27">
       <c r="A37" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2">
         <v>30</v>
@@ -2694,13 +3213,16 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AA37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="1:27">
       <c r="A38" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
@@ -2732,13 +3254,16 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AA38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" hidden="1" spans="1:27">
       <c r="A39" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
@@ -2766,13 +3291,16 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AA39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="1:27">
       <c r="A40" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
@@ -2800,13 +3328,16 @@
         <v>320</v>
       </c>
       <c r="Z40" s="1"/>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AA40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" hidden="1" spans="1:27">
       <c r="A41" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
@@ -2838,13 +3369,16 @@
         <v>60</v>
       </c>
       <c r="Z41" s="1"/>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="AA41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" hidden="1" spans="1:27">
       <c r="A42" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2">
         <v>320</v>
@@ -2872,13 +3406,16 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2">
         <v>30</v>
@@ -2908,13 +3445,16 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AA43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" spans="1:27">
       <c r="A44" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
@@ -2944,13 +3484,16 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AA44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" hidden="1" spans="1:27">
       <c r="A45" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
@@ -2980,13 +3523,16 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="AA45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" hidden="1" spans="1:27">
       <c r="A46" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
@@ -3016,13 +3562,16 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="AA46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" hidden="1" spans="1:27">
       <c r="A47" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="3"/>
@@ -3052,13 +3601,16 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
-    </row>
-    <row r="48" spans="1:26">
+      <c r="AA47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" hidden="1" spans="1:27">
       <c r="A48" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2">
         <v>30</v>
@@ -3088,13 +3640,16 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="AA48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" hidden="1" spans="1:27">
       <c r="A49" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
@@ -3124,13 +3679,16 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="AA49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" hidden="1" spans="1:27">
       <c r="A50" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
@@ -3158,13 +3716,16 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
-    </row>
-    <row r="51" spans="1:26">
+      <c r="AA50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" hidden="1" spans="1:27">
       <c r="A51" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
@@ -3194,13 +3755,16 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="AA51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" hidden="1" spans="1:27">
       <c r="A52" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
@@ -3230,13 +3794,16 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
-    </row>
-    <row r="53" spans="1:26">
+      <c r="AA52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" hidden="1" spans="1:27">
       <c r="A53" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
@@ -3266,13 +3833,16 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="AA53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" hidden="1" spans="1:27">
       <c r="A54" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
@@ -3300,13 +3870,16 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
-    </row>
-    <row r="55" spans="1:26">
+      <c r="AA54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" hidden="1" spans="1:27">
       <c r="A55" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
@@ -3336,13 +3909,16 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
-    </row>
-    <row r="56" spans="1:26">
+      <c r="AA55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" hidden="1" spans="1:27">
       <c r="A56" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C56" s="2">
         <v>80</v>
@@ -3372,13 +3948,16 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="AA56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" hidden="1" spans="1:27">
       <c r="A57" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
@@ -3408,13 +3987,16 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="AA57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" hidden="1" spans="1:27">
       <c r="A58" s="7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
@@ -3444,13 +4026,16 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
-    </row>
-    <row r="59" spans="1:26">
+      <c r="AA58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" hidden="1" spans="1:27">
       <c r="A59" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
@@ -3478,13 +4063,16 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
-    </row>
-    <row r="60" spans="1:26">
+      <c r="AA59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" hidden="1" spans="1:27">
       <c r="A60" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
@@ -3514,13 +4102,16 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
-    </row>
-    <row r="61" spans="1:26">
+      <c r="AA60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" hidden="1" spans="1:27">
       <c r="A61" s="7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
@@ -3548,13 +4139,16 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
-    </row>
-    <row r="62" spans="1:26">
+      <c r="AA61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" hidden="1" spans="1:27">
       <c r="A62" s="7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
@@ -3584,13 +4178,16 @@
         <v>160</v>
       </c>
       <c r="Z62" s="1"/>
-    </row>
-    <row r="63" spans="1:26">
+      <c r="AA62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" hidden="1" spans="1:27">
       <c r="A63" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
@@ -3620,13 +4217,16 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
-    </row>
-    <row r="64" spans="1:26">
+      <c r="AA63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" hidden="1" spans="1:27">
       <c r="A64" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C64" s="2">
         <v>80</v>
@@ -3658,13 +4258,16 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
-    </row>
-    <row r="65" spans="1:26">
+      <c r="AA64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" hidden="1" spans="1:27">
       <c r="A65" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C65" s="2">
         <v>160</v>
@@ -3694,13 +4297,16 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
-    </row>
-    <row r="66" spans="1:26">
+      <c r="AA65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" hidden="1" spans="1:27">
       <c r="A66" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="3">
@@ -3730,13 +4336,16 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
-    </row>
-    <row r="67" spans="1:26">
+      <c r="AA66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" hidden="1" spans="1:27">
       <c r="A67" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="3">
@@ -3764,13 +4373,16 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
-    </row>
-    <row r="68" spans="1:26">
+      <c r="AA67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" hidden="1" spans="1:27">
       <c r="A68" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
@@ -3800,13 +4412,16 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
-    </row>
-    <row r="69" spans="1:26">
+      <c r="AA68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" hidden="1" spans="1:27">
       <c r="A69" s="7" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
@@ -3834,13 +4449,16 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
-    </row>
-    <row r="70" spans="1:26">
+      <c r="AA69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" hidden="1" spans="1:27">
       <c r="A70" s="7" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
@@ -3870,13 +4488,16 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
-    </row>
-    <row r="71" spans="1:26">
+      <c r="AA70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" hidden="1" spans="1:27">
       <c r="A71" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
@@ -3908,13 +4529,16 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
-    </row>
-    <row r="72" spans="1:26">
+      <c r="AA71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" hidden="1" spans="1:27">
       <c r="A72" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
@@ -3942,13 +4566,16 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
-    </row>
-    <row r="73" spans="1:26">
+      <c r="AA72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" hidden="1" spans="1:27">
       <c r="A73" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="3">
@@ -3978,13 +4605,16 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-    </row>
-    <row r="74" spans="1:26">
+      <c r="AA73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" hidden="1" spans="1:27">
       <c r="A74" s="7" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
@@ -4012,13 +4642,16 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-    </row>
-    <row r="75" spans="1:26">
+      <c r="AA74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" hidden="1" spans="1:27">
       <c r="A75" s="7" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
@@ -4048,13 +4681,16 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-    </row>
-    <row r="76" spans="1:26">
+      <c r="AA75" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" hidden="1" spans="1:27">
       <c r="A76" s="7" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3">
@@ -4086,13 +4722,16 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-    </row>
-    <row r="77" spans="1:26">
+      <c r="AA76" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" hidden="1" spans="1:27">
       <c r="A77" s="7" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -4122,13 +4761,16 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
-    </row>
-    <row r="78" spans="1:26">
+      <c r="AA77" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" hidden="1" spans="1:27">
       <c r="A78" s="7" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
@@ -4156,13 +4798,16 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-    </row>
-    <row r="79" spans="1:26">
+      <c r="AA78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" hidden="1" spans="1:27">
       <c r="A79" s="7" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
@@ -4190,13 +4835,16 @@
       </c>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
-    </row>
-    <row r="80" spans="1:26">
+      <c r="AA79" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" hidden="1" spans="1:27">
       <c r="A80" s="7" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
@@ -4226,13 +4874,16 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
-    </row>
-    <row r="81" spans="1:26">
+      <c r="AA80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" hidden="1" spans="1:27">
       <c r="A81" s="7" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
@@ -4262,17 +4913,18 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
-    </row>
-    <row r="82" spans="1:26">
+      <c r="AA81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" hidden="1" spans="1:27">
       <c r="A82" s="4" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C82" s="2">
-        <v>960</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" s="3"/>
       <c r="E82" s="2"/>
       <c r="F82" s="3"/>
@@ -4285,8 +4937,12 @@
       <c r="M82" s="2"/>
       <c r="N82" s="3"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
+      <c r="P82" s="1">
+        <v>160</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>640</v>
+      </c>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
@@ -4296,18 +4952,19 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
-    </row>
-    <row r="83" spans="1:26">
+      <c r="AA82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" hidden="1" spans="1:27">
       <c r="A83" s="4" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="C83" s="2"/>
-      <c r="D83" s="3">
-        <v>320</v>
-      </c>
+      <c r="D83" s="3"/>
       <c r="E83" s="2"/>
       <c r="F83" s="3"/>
       <c r="G83" s="2"/>
@@ -4315,7 +4972,9 @@
       <c r="I83" s="2"/>
       <c r="J83" s="3"/>
       <c r="K83" s="2"/>
-      <c r="L83" s="3"/>
+      <c r="L83" s="3">
+        <v>80</v>
+      </c>
       <c r="M83" s="2"/>
       <c r="N83" s="3"/>
       <c r="O83" s="1"/>
@@ -4323,31 +4982,34 @@
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
-      <c r="T83" s="1"/>
+      <c r="T83" s="1">
+        <v>640</v>
+      </c>
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
-      <c r="W83" s="1">
-        <v>160</v>
-      </c>
+      <c r="W83" s="1"/>
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
-    </row>
-    <row r="84" spans="1:26">
+      <c r="AA83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" hidden="1" spans="1:27">
       <c r="A84" s="4" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="C84" s="2"/>
-      <c r="D84" s="3">
-        <v>960</v>
-      </c>
+      <c r="D84" s="3"/>
       <c r="E84" s="2"/>
       <c r="F84" s="3"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="3"/>
+      <c r="H84" s="3">
+        <v>960</v>
+      </c>
       <c r="I84" s="2"/>
       <c r="J84" s="3"/>
       <c r="K84" s="2"/>
@@ -4366,19 +5028,24 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
-    </row>
-    <row r="85" spans="1:26">
+      <c r="AA84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" hidden="1" spans="1:27">
       <c r="A85" s="4" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="C85" s="2"/>
-      <c r="D85" s="3"/>
+      <c r="D85" s="3">
+        <v>640</v>
+      </c>
       <c r="E85" s="2"/>
       <c r="F85" s="3">
-        <v>960</v>
+        <v>80</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="3"/>
@@ -4400,30 +5067,31 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
-    </row>
-    <row r="86" spans="1:26">
+      <c r="AA85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" hidden="1" spans="1:27">
       <c r="A86" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>182</v>
+        <v>154</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="2">
-        <v>160</v>
-      </c>
+      <c r="E86" s="2"/>
       <c r="F86" s="3"/>
       <c r="G86" s="2"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="2"/>
+      <c r="I86" s="2">
+        <v>960</v>
+      </c>
       <c r="J86" s="3"/>
       <c r="K86" s="2"/>
       <c r="L86" s="3"/>
       <c r="M86" s="2"/>
-      <c r="N86" s="3">
-        <v>160</v>
-      </c>
+      <c r="N86" s="3"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -4436,19 +5104,22 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
-    </row>
-    <row r="87" spans="1:26">
+      <c r="AA86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" hidden="1" spans="1:27">
       <c r="A87" s="4" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="C87" s="2">
+        <v>960</v>
+      </c>
       <c r="D87" s="3"/>
-      <c r="E87" s="2">
-        <v>320</v>
-      </c>
+      <c r="E87" s="2"/>
       <c r="F87" s="3"/>
       <c r="G87" s="2"/>
       <c r="H87" s="3"/>
@@ -4467,18 +5138,19 @@
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
-      <c r="X87" s="1">
-        <v>160</v>
-      </c>
+      <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
-    </row>
-    <row r="88" spans="1:26">
+      <c r="AA87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" hidden="1" spans="1:27">
       <c r="A88" s="4" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
@@ -4506,30 +5178,33 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
-    </row>
-    <row r="89" spans="1:26">
+      <c r="AA88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" hidden="1" spans="1:27">
       <c r="A89" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>187</v>
+        <v>158</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="C89" s="2"/>
-      <c r="D89" s="3"/>
+      <c r="D89" s="3">
+        <v>80</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="3"/>
-      <c r="G89" s="2">
-        <v>320</v>
-      </c>
+      <c r="G89" s="2"/>
       <c r="H89" s="3"/>
       <c r="I89" s="2"/>
-      <c r="J89" s="3">
-        <v>80</v>
-      </c>
+      <c r="J89" s="3"/>
       <c r="K89" s="2"/>
       <c r="L89" s="3"/>
       <c r="M89" s="2"/>
-      <c r="N89" s="3"/>
+      <c r="N89" s="3">
+        <v>80</v>
+      </c>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -4539,24 +5214,27 @@
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
-      <c r="X89" s="1"/>
+      <c r="X89" s="1">
+        <v>160</v>
+      </c>
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
-    </row>
-    <row r="90" spans="1:26">
+      <c r="AA89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" hidden="1" spans="1:27">
       <c r="A90" s="4" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
       <c r="E90" s="2"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="2">
-        <v>640</v>
-      </c>
+      <c r="G90" s="2"/>
       <c r="H90" s="3"/>
       <c r="I90" s="2"/>
       <c r="J90" s="3"/>
@@ -4569,37 +5247,40 @@
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
-      <c r="T90" s="1"/>
+      <c r="T90" s="1">
+        <v>1920</v>
+      </c>
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
-      <c r="W90" s="1">
-        <v>60</v>
-      </c>
+      <c r="W90" s="1"/>
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
-    </row>
-    <row r="91" spans="1:26">
+      <c r="AA90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" hidden="1" spans="1:27">
       <c r="A91" s="4" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
       <c r="E91" s="2"/>
       <c r="F91" s="3"/>
-      <c r="G91" s="2">
-        <v>960</v>
-      </c>
+      <c r="G91" s="2"/>
       <c r="H91" s="3"/>
       <c r="I91" s="2"/>
       <c r="J91" s="3"/>
       <c r="K91" s="2"/>
       <c r="L91" s="3"/>
       <c r="M91" s="2"/>
-      <c r="N91" s="3"/>
+      <c r="N91" s="3">
+        <v>160</v>
+      </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -4608,26 +5289,31 @@
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
+      <c r="W91" s="1">
+        <v>320</v>
+      </c>
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
-    </row>
-    <row r="92" spans="1:26">
+      <c r="AA91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" hidden="1" spans="1:27">
       <c r="A92" s="4" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="3"/>
+      <c r="D92" s="3">
+        <v>30</v>
+      </c>
       <c r="E92" s="2"/>
       <c r="F92" s="3"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="3">
-        <v>320</v>
-      </c>
+      <c r="H92" s="3"/>
       <c r="I92" s="2"/>
       <c r="J92" s="3"/>
       <c r="K92" s="2"/>
@@ -4640,32 +5326,35 @@
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
-      <c r="U92" s="1">
-        <v>160</v>
-      </c>
+      <c r="U92" s="1"/>
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
-    </row>
-    <row r="93" spans="1:26">
+      <c r="AA92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" hidden="1" spans="1:27">
       <c r="A93" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>191</v>
+        <v>163</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
       <c r="E93" s="2"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="3">
-        <v>960</v>
-      </c>
+      <c r="G93" s="2">
+        <v>320</v>
+      </c>
+      <c r="H93" s="3"/>
       <c r="I93" s="2"/>
-      <c r="J93" s="3"/>
+      <c r="J93" s="3">
+        <v>80</v>
+      </c>
       <c r="K93" s="2"/>
       <c r="L93" s="3"/>
       <c r="M93" s="2"/>
@@ -4682,13 +5371,16 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
-    </row>
-    <row r="94" spans="1:26">
+      <c r="AA93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" hidden="1" spans="1:27">
       <c r="A94" s="4" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
@@ -4696,9 +5388,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="2"/>
       <c r="H94" s="3"/>
-      <c r="I94" s="2">
-        <v>960</v>
-      </c>
+      <c r="I94" s="2"/>
       <c r="J94" s="3"/>
       <c r="K94" s="2"/>
       <c r="L94" s="3"/>
@@ -4714,15 +5404,20 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
+      <c r="Y94" s="1">
+        <v>1920</v>
+      </c>
       <c r="Z94" s="1"/>
-    </row>
-    <row r="95" spans="1:26">
+      <c r="AA94" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" hidden="1" spans="1:27">
       <c r="A95" s="4" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -4734,9 +5429,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="2"/>
       <c r="L95" s="3"/>
-      <c r="M95" s="2">
-        <v>960</v>
-      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="3"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
@@ -4744,19 +5437,24 @@
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
-      <c r="U95" s="1"/>
+      <c r="U95" s="1">
+        <v>1920</v>
+      </c>
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
-    </row>
-    <row r="96" spans="1:26">
+      <c r="AA95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" hidden="1" spans="1:27">
       <c r="A96" s="4" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
@@ -4769,35 +5467,36 @@
       <c r="K96" s="2"/>
       <c r="L96" s="3"/>
       <c r="M96" s="2"/>
-      <c r="N96" s="3">
-        <v>160</v>
-      </c>
+      <c r="N96" s="3"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
+      <c r="S96" s="1">
+        <v>1920</v>
+      </c>
       <c r="T96" s="1"/>
-      <c r="U96" s="1">
-        <v>320</v>
-      </c>
+      <c r="U96" s="1"/>
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
-    </row>
-    <row r="97" spans="1:26">
+      <c r="AA96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" hidden="1" spans="1:27">
       <c r="A97" s="4" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="3">
+        <v>153</v>
+      </c>
+      <c r="C97" s="2">
         <v>80</v>
       </c>
+      <c r="D97" s="3"/>
       <c r="E97" s="2"/>
       <c r="F97" s="3"/>
       <c r="G97" s="2"/>
@@ -4807,9 +5506,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="3"/>
       <c r="M97" s="2"/>
-      <c r="N97" s="3">
-        <v>80</v>
-      </c>
+      <c r="N97" s="3"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -4819,18 +5516,21 @@
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
-      <c r="X97" s="1">
-        <v>160</v>
-      </c>
+      <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
-      <c r="Z97" s="1"/>
-    </row>
-    <row r="98" spans="1:26">
+      <c r="Z97" s="1">
+        <v>1280</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" hidden="1" spans="1:27">
       <c r="A98" s="4" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -4860,16 +5560,21 @@
       </c>
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
-    </row>
-    <row r="99" spans="1:26">
+      <c r="AA98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" hidden="1" spans="1:27">
       <c r="A99" s="4" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="3"/>
+      <c r="D99" s="3">
+        <v>160</v>
+      </c>
       <c r="E99" s="2"/>
       <c r="F99" s="3"/>
       <c r="G99" s="2"/>
@@ -4889,58 +5594,66 @@
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
-      <c r="X99" s="1">
-        <v>1920</v>
-      </c>
+      <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
-      <c r="Z99" s="1"/>
-    </row>
-    <row r="100" spans="1:26">
+      <c r="Z99" s="1">
+        <v>640</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" hidden="1" spans="1:27">
       <c r="A100" s="4" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
       <c r="E100" s="2"/>
       <c r="F100" s="3"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="3"/>
+      <c r="H100" s="3">
+        <v>320</v>
+      </c>
       <c r="I100" s="2"/>
       <c r="J100" s="3"/>
       <c r="K100" s="2"/>
       <c r="L100" s="3"/>
       <c r="M100" s="2"/>
-      <c r="N100" s="3">
-        <v>160</v>
-      </c>
+      <c r="N100" s="3"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
+      <c r="U100" s="1">
+        <v>160</v>
+      </c>
       <c r="V100" s="1"/>
-      <c r="W100" s="1">
-        <v>320</v>
-      </c>
+      <c r="W100" s="1"/>
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
-    </row>
-    <row r="101" spans="1:26">
+      <c r="AA100" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" hidden="1" spans="1:27">
       <c r="A101" s="4" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="2"/>
+      <c r="E101" s="2">
+        <v>640</v>
+      </c>
       <c r="F101" s="3"/>
       <c r="G101" s="2"/>
       <c r="H101" s="3"/>
@@ -4952,11 +5665,11 @@
       <c r="N101" s="3"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
+      <c r="Q101" s="1">
+        <v>160</v>
+      </c>
       <c r="R101" s="1"/>
-      <c r="S101" s="1">
-        <v>1920</v>
-      </c>
+      <c r="S101" s="1"/>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
@@ -4964,17 +5677,22 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
-    </row>
-    <row r="102" spans="1:26">
+      <c r="AA101" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" hidden="1" spans="1:27">
       <c r="A102" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>211</v>
+        <v>175</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="2"/>
+      <c r="E102" s="2">
+        <v>160</v>
+      </c>
       <c r="F102" s="3"/>
       <c r="G102" s="2"/>
       <c r="H102" s="3"/>
@@ -4983,14 +5701,12 @@
       <c r="K102" s="2"/>
       <c r="L102" s="3"/>
       <c r="M102" s="2"/>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3">
+        <v>160</v>
+      </c>
       <c r="O102" s="1"/>
-      <c r="P102" s="1">
-        <v>640</v>
-      </c>
-      <c r="Q102" s="1">
-        <v>160</v>
-      </c>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
@@ -5000,19 +5716,24 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
-    </row>
-    <row r="103" spans="1:26">
+      <c r="AA102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" hidden="1" spans="1:27">
       <c r="A103" s="4" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
       <c r="E103" s="2"/>
       <c r="F103" s="3"/>
-      <c r="G103" s="2"/>
+      <c r="G103" s="2">
+        <v>960</v>
+      </c>
       <c r="H103" s="3"/>
       <c r="I103" s="2"/>
       <c r="J103" s="3"/>
@@ -5021,12 +5742,8 @@
       <c r="M103" s="2"/>
       <c r="N103" s="3"/>
       <c r="O103" s="1"/>
-      <c r="P103" s="1">
-        <v>160</v>
-      </c>
-      <c r="Q103" s="1">
-        <v>640</v>
-      </c>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
@@ -5036,13 +5753,16 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
-    </row>
-    <row r="104" spans="1:26">
+      <c r="AA103" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" hidden="1" spans="1:27">
       <c r="A104" s="4" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
@@ -5060,36 +5780,41 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
-      <c r="S104" s="1"/>
+      <c r="S104" s="1">
+        <v>1280</v>
+      </c>
       <c r="T104" s="1"/>
       <c r="U104" s="1">
-        <v>1920</v>
+        <v>160</v>
       </c>
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
-    </row>
-    <row r="105" spans="1:26">
+      <c r="AA104" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" hidden="1" spans="1:27">
       <c r="A105" s="4" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
       <c r="E105" s="2"/>
       <c r="F105" s="3"/>
-      <c r="G105" s="2"/>
+      <c r="G105" s="2">
+        <v>30</v>
+      </c>
       <c r="H105" s="3"/>
       <c r="I105" s="2"/>
       <c r="J105" s="3"/>
       <c r="K105" s="2"/>
-      <c r="L105" s="3">
-        <v>80</v>
-      </c>
+      <c r="L105" s="3"/>
       <c r="M105" s="2"/>
       <c r="N105" s="3"/>
       <c r="O105" s="1"/>
@@ -5097,27 +5822,32 @@
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
-      <c r="T105" s="1">
-        <v>640</v>
-      </c>
+      <c r="T105" s="1"/>
       <c r="U105" s="1"/>
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
-    </row>
-    <row r="106" spans="1:26">
+      <c r="AA105" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" hidden="1" spans="1:27">
       <c r="A106" s="4" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="C106" s="2"/>
-      <c r="D106" s="3"/>
+      <c r="D106" s="3">
+        <v>80</v>
+      </c>
       <c r="E106" s="2"/>
-      <c r="F106" s="3"/>
+      <c r="F106" s="3">
+        <v>640</v>
+      </c>
       <c r="G106" s="2"/>
       <c r="H106" s="3"/>
       <c r="I106" s="2"/>
@@ -5131,27 +5861,30 @@
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
-      <c r="T106" s="1">
-        <v>1920</v>
-      </c>
+      <c r="T106" s="1"/>
       <c r="U106" s="1"/>
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
-    </row>
-    <row r="107" spans="1:26">
+      <c r="AA106" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" hidden="1" spans="1:27">
       <c r="A107" s="4" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
       <c r="E107" s="2"/>
-      <c r="F107" s="3"/>
+      <c r="F107" s="3">
+        <v>30</v>
+      </c>
       <c r="G107" s="2"/>
       <c r="H107" s="3"/>
       <c r="I107" s="2"/>
@@ -5170,21 +5903,20 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
-      <c r="Y107" s="1">
-        <v>1920</v>
-      </c>
+      <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
-    </row>
-    <row r="108" spans="1:26">
+      <c r="AA107" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" hidden="1" spans="1:27">
       <c r="A108" s="4" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C108" s="2">
-        <v>80</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C108" s="2"/>
       <c r="D108" s="3"/>
       <c r="E108" s="2"/>
       <c r="F108" s="3"/>
@@ -5197,8 +5929,12 @@
       <c r="M108" s="2"/>
       <c r="N108" s="3"/>
       <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
+      <c r="P108" s="1">
+        <v>640</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>160</v>
+      </c>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
@@ -5207,32 +5943,33 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
-      <c r="Z108" s="1">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="109" spans="1:26">
+      <c r="Z108" s="1"/>
+      <c r="AA108" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" hidden="1" spans="1:27">
       <c r="A109" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>224</v>
+        <v>182</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C109" s="2"/>
-      <c r="D109" s="3">
-        <v>640</v>
-      </c>
+      <c r="D109" s="3"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="3">
-        <v>80</v>
-      </c>
+      <c r="F109" s="3"/>
       <c r="G109" s="2"/>
       <c r="H109" s="3"/>
       <c r="I109" s="2"/>
-      <c r="J109" s="3"/>
+      <c r="J109" s="3">
+        <v>80</v>
+      </c>
       <c r="K109" s="2"/>
       <c r="L109" s="3"/>
-      <c r="M109" s="2"/>
+      <c r="M109" s="2">
+        <v>640</v>
+      </c>
       <c r="N109" s="3"/>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
@@ -5246,18 +5983,19 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
-    </row>
-    <row r="110" spans="1:26">
+      <c r="AA109" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" hidden="1" spans="1:27">
       <c r="A110" s="4" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="C110" s="2"/>
-      <c r="D110" s="3">
-        <v>160</v>
-      </c>
+      <c r="D110" s="3"/>
       <c r="E110" s="2"/>
       <c r="F110" s="3"/>
       <c r="G110" s="2"/>
@@ -5277,31 +6015,34 @@
       <c r="U110" s="1"/>
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
-      <c r="X110" s="1"/>
+      <c r="X110" s="1">
+        <v>1920</v>
+      </c>
       <c r="Y110" s="1"/>
-      <c r="Z110" s="1">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="111" spans="1:26">
+      <c r="Z110" s="1"/>
+      <c r="AA110" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" hidden="1" spans="1:27">
       <c r="A111" s="4" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="C111" s="2"/>
-      <c r="D111" s="3">
-        <v>80</v>
-      </c>
+      <c r="D111" s="3"/>
       <c r="E111" s="2"/>
       <c r="F111" s="3">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="3"/>
       <c r="I111" s="2"/>
-      <c r="J111" s="3"/>
+      <c r="J111" s="3">
+        <v>160</v>
+      </c>
       <c r="K111" s="2"/>
       <c r="L111" s="3"/>
       <c r="M111" s="2"/>
@@ -5318,26 +6059,27 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
-    </row>
-    <row r="112" spans="1:26">
+      <c r="AA111" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" hidden="1" spans="1:27">
       <c r="A112" s="4" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>230</v>
+        <v>37</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="2"/>
       <c r="F112" s="3">
-        <v>320</v>
+        <v>960</v>
       </c>
       <c r="G112" s="2"/>
       <c r="H112" s="3"/>
       <c r="I112" s="2"/>
-      <c r="J112" s="3">
-        <v>160</v>
-      </c>
+      <c r="J112" s="3"/>
       <c r="K112" s="2"/>
       <c r="L112" s="3"/>
       <c r="M112" s="2"/>
@@ -5354,19 +6096,22 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
-    </row>
-    <row r="113" spans="1:26">
+      <c r="AA112" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" hidden="1" spans="1:27">
       <c r="A113" s="4" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C113" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="C113" s="2">
+        <v>30</v>
+      </c>
       <c r="D113" s="3"/>
-      <c r="E113" s="2">
-        <v>640</v>
-      </c>
+      <c r="E113" s="2"/>
       <c r="F113" s="3"/>
       <c r="G113" s="2"/>
       <c r="H113" s="3"/>
@@ -5378,9 +6123,7 @@
       <c r="N113" s="3"/>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
-      <c r="Q113" s="1">
-        <v>160</v>
-      </c>
+      <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
@@ -5390,29 +6133,30 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
-    </row>
-    <row r="114" spans="1:26">
+      <c r="AA113" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" hidden="1" spans="1:27">
       <c r="A114" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>234</v>
+        <v>188</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="2"/>
       <c r="F114" s="3"/>
-      <c r="G114" s="2"/>
+      <c r="G114" s="2">
+        <v>640</v>
+      </c>
       <c r="H114" s="3"/>
       <c r="I114" s="2"/>
-      <c r="J114" s="3">
-        <v>80</v>
-      </c>
+      <c r="J114" s="3"/>
       <c r="K114" s="2"/>
       <c r="L114" s="3"/>
-      <c r="M114" s="2">
-        <v>640</v>
-      </c>
+      <c r="M114" s="2"/>
       <c r="N114" s="3"/>
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
@@ -5422,20 +6166,27 @@
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
       <c r="V114" s="1"/>
-      <c r="W114" s="1"/>
+      <c r="W114" s="1">
+        <v>60</v>
+      </c>
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
-    </row>
-    <row r="115" spans="1:26">
+      <c r="AA114" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" hidden="1" spans="1:27">
       <c r="A115" s="4" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>236</v>
+        <v>33</v>
       </c>
       <c r="C115" s="2"/>
-      <c r="D115" s="3"/>
+      <c r="D115" s="3">
+        <v>320</v>
+      </c>
       <c r="E115" s="2"/>
       <c r="F115" s="3"/>
       <c r="G115" s="2"/>
@@ -5446,9 +6197,7 @@
       <c r="L115" s="3"/>
       <c r="M115" s="2"/>
       <c r="N115" s="3"/>
-      <c r="O115" s="1">
-        <v>160</v>
-      </c>
+      <c r="O115" s="1"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
@@ -5457,18 +6206,21 @@
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
       <c r="W115" s="1">
-        <v>1280</v>
+        <v>160</v>
       </c>
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
-    </row>
-    <row r="116" spans="1:26">
+      <c r="AA115" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" hidden="1" spans="1:27">
       <c r="A116" s="4" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
@@ -5498,13 +6250,16 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
-    </row>
-    <row r="117" spans="1:26">
+      <c r="AA116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" hidden="1" spans="1:27">
       <c r="A117" s="4" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>240</v>
+        <v>159</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
@@ -5517,41 +6272,44 @@
       <c r="K117" s="2"/>
       <c r="L117" s="3"/>
       <c r="M117" s="2"/>
-      <c r="N117" s="3"/>
+      <c r="N117" s="3">
+        <v>160</v>
+      </c>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
-      <c r="S117" s="1">
-        <v>1280</v>
-      </c>
+      <c r="S117" s="1"/>
       <c r="T117" s="1"/>
       <c r="U117" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
-    </row>
-    <row r="118" spans="1:26">
-      <c r="A118" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C118" s="2">
-        <v>640</v>
-      </c>
+      <c r="AA117" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" hidden="1" spans="1:27">
+      <c r="A118" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C118" s="2"/>
       <c r="D118" s="3"/>
       <c r="E118" s="2"/>
       <c r="F118" s="3"/>
       <c r="G118" s="2"/>
       <c r="H118" s="3"/>
       <c r="I118" s="2"/>
-      <c r="J118" s="3"/>
+      <c r="J118" s="3">
+        <v>640</v>
+      </c>
       <c r="K118" s="2"/>
       <c r="L118" s="3"/>
       <c r="M118" s="2"/>
@@ -5564,34 +6322,35 @@
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
       <c r="V118" s="1"/>
-      <c r="W118" s="1"/>
-      <c r="X118" s="1">
+      <c r="W118" s="1">
         <v>320</v>
       </c>
+      <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
-    </row>
-    <row r="119" spans="1:26">
-      <c r="A119" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C119" s="2">
-        <v>320</v>
-      </c>
+      <c r="AA118" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="119" hidden="1" spans="1:27">
+      <c r="A119" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C119" s="2"/>
       <c r="D119" s="3"/>
       <c r="E119" s="2"/>
       <c r="F119" s="3"/>
       <c r="G119" s="2"/>
       <c r="H119" s="3"/>
-      <c r="I119" s="2">
-        <v>320</v>
-      </c>
+      <c r="I119" s="2"/>
       <c r="J119" s="3"/>
       <c r="K119" s="2"/>
-      <c r="L119" s="3"/>
+      <c r="L119" s="3">
+        <v>960</v>
+      </c>
       <c r="M119" s="2"/>
       <c r="N119" s="3"/>
       <c r="O119" s="1"/>
@@ -5603,33 +6362,38 @@
       <c r="U119" s="1"/>
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
-      <c r="X119" s="1"/>
+      <c r="X119" s="1">
+        <v>320</v>
+      </c>
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
-    </row>
-    <row r="120" spans="1:26">
-      <c r="A120" s="10" t="s">
-        <v>245</v>
+      <c r="AA119" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="120" hidden="1" spans="1:27">
+      <c r="A120" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="2"/>
+      <c r="E120" s="2">
+        <v>320</v>
+      </c>
       <c r="F120" s="3"/>
       <c r="G120" s="2"/>
       <c r="H120" s="3"/>
-      <c r="I120" s="2">
-        <v>320</v>
-      </c>
+      <c r="I120" s="2"/>
       <c r="J120" s="3"/>
       <c r="K120" s="2"/>
       <c r="L120" s="3"/>
-      <c r="M120" s="2"/>
-      <c r="N120" s="3">
-        <v>30</v>
-      </c>
+      <c r="M120" s="2">
+        <v>960</v>
+      </c>
+      <c r="N120" s="3"/>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
@@ -5638,31 +6402,38 @@
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
       <c r="V120" s="1"/>
-      <c r="W120" s="1">
-        <v>320</v>
-      </c>
-      <c r="X120" s="1"/>
+      <c r="W120" s="1"/>
+      <c r="X120" s="1">
+        <v>160</v>
+      </c>
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
-    </row>
-    <row r="121" spans="1:26">
-      <c r="A121" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>248</v>
+      <c r="AA120" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" hidden="1" spans="1:27">
+      <c r="A121" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
       <c r="E121" s="2"/>
       <c r="F121" s="3"/>
-      <c r="G121" s="2"/>
+      <c r="G121" s="2">
+        <v>160</v>
+      </c>
       <c r="H121" s="3"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="3">
-        <v>640</v>
-      </c>
-      <c r="K121" s="2"/>
+      <c r="I121" s="2">
+        <v>320</v>
+      </c>
+      <c r="J121" s="3"/>
+      <c r="K121" s="2">
+        <v>160</v>
+      </c>
       <c r="L121" s="3"/>
       <c r="M121" s="2"/>
       <c r="N121" s="3"/>
@@ -5674,34 +6445,37 @@
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
       <c r="V121" s="1"/>
-      <c r="W121" s="1">
-        <v>320</v>
-      </c>
+      <c r="W121" s="1"/>
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
-    </row>
-    <row r="122" spans="1:26">
-      <c r="A122" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>250</v>
+      <c r="AA121" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="122" hidden="1" spans="1:27">
+      <c r="A122" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="2">
-        <v>80</v>
-      </c>
+      <c r="E122" s="2"/>
       <c r="F122" s="3"/>
       <c r="G122" s="2"/>
-      <c r="H122" s="3"/>
+      <c r="H122" s="3">
+        <v>640</v>
+      </c>
       <c r="I122" s="2"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="2">
-        <v>640</v>
-      </c>
-      <c r="L122" s="3"/>
+      <c r="J122" s="3">
+        <v>30</v>
+      </c>
+      <c r="K122" s="2"/>
+      <c r="L122" s="3">
+        <v>160</v>
+      </c>
       <c r="M122" s="2"/>
       <c r="N122" s="3"/>
       <c r="O122" s="1"/>
@@ -5712,36 +6486,35 @@
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
       <c r="V122" s="1"/>
-      <c r="W122" s="1">
-        <v>60</v>
-      </c>
+      <c r="W122" s="1"/>
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
-    </row>
-    <row r="123" spans="1:26">
-      <c r="A123" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>252</v>
+      <c r="AA122" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="123" hidden="1" spans="1:27">
+      <c r="A123" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="C123" s="2"/>
-      <c r="D123" s="3">
-        <v>80</v>
-      </c>
+      <c r="D123" s="3"/>
       <c r="E123" s="2"/>
       <c r="F123" s="3"/>
       <c r="G123" s="2"/>
-      <c r="H123" s="3"/>
+      <c r="H123" s="3">
+        <v>960</v>
+      </c>
       <c r="I123" s="2"/>
       <c r="J123" s="3"/>
       <c r="K123" s="2"/>
       <c r="L123" s="3"/>
       <c r="M123" s="2"/>
-      <c r="N123" s="3">
-        <v>80</v>
-      </c>
+      <c r="N123" s="3"/>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
@@ -5750,29 +6523,38 @@
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
       <c r="V123" s="1">
-        <v>640</v>
+        <v>160</v>
       </c>
       <c r="W123" s="1"/>
-      <c r="X123" s="1"/>
+      <c r="X123" s="1">
+        <v>160</v>
+      </c>
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
-    </row>
-    <row r="124" spans="1:26">
-      <c r="A124" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>254</v>
+      <c r="AA123" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="124" hidden="1" spans="1:27">
+      <c r="A124" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="2"/>
+      <c r="E124" s="2">
+        <v>80</v>
+      </c>
       <c r="F124" s="3"/>
       <c r="G124" s="2"/>
       <c r="H124" s="3"/>
       <c r="I124" s="2"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="2"/>
+      <c r="K124" s="2">
+        <v>640</v>
+      </c>
       <c r="L124" s="3"/>
       <c r="M124" s="2"/>
       <c r="N124" s="3"/>
@@ -5780,42 +6562,37 @@
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
-      <c r="S124" s="1">
-        <v>160</v>
-      </c>
+      <c r="S124" s="1"/>
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
-      <c r="V124" s="1">
-        <v>1920</v>
-      </c>
-      <c r="W124" s="1"/>
+      <c r="V124" s="1"/>
+      <c r="W124" s="1">
+        <v>60</v>
+      </c>
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
-    </row>
-    <row r="125" spans="1:26">
-      <c r="A125" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>256</v>
+      <c r="AA124" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="125" hidden="1" spans="1:27">
+      <c r="A125" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
       <c r="E125" s="2"/>
       <c r="F125" s="3"/>
       <c r="G125" s="2"/>
-      <c r="H125" s="3">
-        <v>640</v>
-      </c>
+      <c r="H125" s="3"/>
       <c r="I125" s="2"/>
-      <c r="J125" s="3">
-        <v>30</v>
-      </c>
+      <c r="J125" s="3"/>
       <c r="K125" s="2"/>
-      <c r="L125" s="3">
-        <v>160</v>
-      </c>
+      <c r="L125" s="3"/>
       <c r="M125" s="2"/>
       <c r="N125" s="3"/>
       <c r="O125" s="1"/>
@@ -5826,34 +6603,39 @@
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
       <c r="V125" s="1"/>
-      <c r="W125" s="1"/>
-      <c r="X125" s="1"/>
+      <c r="W125" s="1">
+        <v>1920</v>
+      </c>
+      <c r="X125" s="1">
+        <v>320</v>
+      </c>
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
-    </row>
-    <row r="126" spans="1:26">
-      <c r="A126" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>258</v>
+      <c r="AA125" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" hidden="1" spans="1:27">
+      <c r="A126" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="C126" s="2"/>
-      <c r="D126" s="3">
-        <v>160</v>
-      </c>
+      <c r="D126" s="3"/>
       <c r="E126" s="2"/>
       <c r="F126" s="3"/>
       <c r="G126" s="2"/>
       <c r="H126" s="3"/>
       <c r="I126" s="2"/>
-      <c r="J126" s="3">
-        <v>960</v>
-      </c>
+      <c r="J126" s="3"/>
       <c r="K126" s="2"/>
       <c r="L126" s="3"/>
       <c r="M126" s="2"/>
-      <c r="N126" s="3"/>
+      <c r="N126" s="3">
+        <v>960</v>
+      </c>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
@@ -5861,20 +6643,27 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
-      <c r="V126" s="1"/>
+      <c r="V126" s="1">
+        <v>320</v>
+      </c>
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
-    </row>
-    <row r="127" spans="1:26">
-      <c r="A127" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C127" s="2"/>
+      <c r="AA126" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="127" hidden="1" spans="1:27">
+      <c r="A127" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C127" s="2">
+        <v>160</v>
+      </c>
       <c r="D127" s="3"/>
       <c r="E127" s="2"/>
       <c r="F127" s="3"/>
@@ -5883,10 +6672,10 @@
       <c r="I127" s="2"/>
       <c r="J127" s="3"/>
       <c r="K127" s="2"/>
-      <c r="L127" s="3">
-        <v>960</v>
-      </c>
-      <c r="M127" s="2"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="2">
+        <v>160</v>
+      </c>
       <c r="N127" s="3"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
@@ -5895,37 +6684,40 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
-      <c r="V127" s="1"/>
+      <c r="V127" s="1">
+        <v>320</v>
+      </c>
       <c r="W127" s="1"/>
-      <c r="X127" s="1">
-        <v>320</v>
-      </c>
+      <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
-    </row>
-    <row r="128" spans="1:26">
-      <c r="A128" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C128" s="2">
-        <v>160</v>
-      </c>
-      <c r="D128" s="3"/>
+      <c r="AA127" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="128" hidden="1" spans="1:27">
+      <c r="A128" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="3">
+        <v>80</v>
+      </c>
       <c r="E128" s="2"/>
       <c r="F128" s="3"/>
       <c r="G128" s="2"/>
       <c r="H128" s="3"/>
       <c r="I128" s="2"/>
       <c r="J128" s="3"/>
-      <c r="K128" s="2">
-        <v>960</v>
-      </c>
+      <c r="K128" s="2"/>
       <c r="L128" s="3"/>
       <c r="M128" s="2"/>
-      <c r="N128" s="3"/>
+      <c r="N128" s="3">
+        <v>80</v>
+      </c>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
@@ -5933,33 +6725,40 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
-      <c r="V128" s="1"/>
+      <c r="V128" s="1">
+        <v>640</v>
+      </c>
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
-    </row>
-    <row r="129" spans="1:26">
-      <c r="A129" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>264</v>
+      <c r="AA128" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="129" hidden="1" spans="1:27">
+      <c r="A129" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="C129" s="2"/>
-      <c r="D129" s="3"/>
+      <c r="D129" s="3">
+        <v>160</v>
+      </c>
       <c r="E129" s="2"/>
       <c r="F129" s="3"/>
       <c r="G129" s="2"/>
       <c r="H129" s="3"/>
       <c r="I129" s="2"/>
-      <c r="J129" s="3"/>
+      <c r="J129" s="3">
+        <v>960</v>
+      </c>
       <c r="K129" s="2"/>
       <c r="L129" s="3"/>
       <c r="M129" s="2"/>
-      <c r="N129" s="3">
-        <v>960</v>
-      </c>
+      <c r="N129" s="3"/>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
@@ -5967,20 +6766,21 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
-      <c r="V129" s="1">
-        <v>320</v>
-      </c>
+      <c r="V129" s="1"/>
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
-    </row>
-    <row r="130" spans="1:26">
-      <c r="A130" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>266</v>
+      <c r="AA129" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="130" hidden="1" spans="1:27">
+      <c r="A130" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="3">
@@ -6012,13 +6812,16 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
-    </row>
-    <row r="131" spans="1:26">
-      <c r="A131" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>268</v>
+      <c r="AA130" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="131" hidden="1" spans="1:27">
+      <c r="A131" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
@@ -6026,12 +6829,16 @@
       <c r="F131" s="3"/>
       <c r="G131" s="2"/>
       <c r="H131" s="3"/>
-      <c r="I131" s="2"/>
+      <c r="I131" s="2">
+        <v>320</v>
+      </c>
       <c r="J131" s="3"/>
       <c r="K131" s="2"/>
       <c r="L131" s="3"/>
       <c r="M131" s="2"/>
-      <c r="N131" s="3"/>
+      <c r="N131" s="3">
+        <v>30</v>
+      </c>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
@@ -6041,43 +6848,42 @@
       <c r="U131" s="1"/>
       <c r="V131" s="1"/>
       <c r="W131" s="1">
-        <v>1920</v>
-      </c>
-      <c r="X131" s="1">
         <v>320</v>
       </c>
+      <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
-    </row>
-    <row r="132" spans="1:26">
-      <c r="A132" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C132" s="2"/>
+      <c r="AA131" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132" hidden="1" spans="1:27">
+      <c r="A132" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C132" s="2">
+        <v>320</v>
+      </c>
       <c r="D132" s="3"/>
       <c r="E132" s="2"/>
       <c r="F132" s="3"/>
       <c r="G132" s="2"/>
       <c r="H132" s="3"/>
-      <c r="I132" s="2"/>
+      <c r="I132" s="2">
+        <v>320</v>
+      </c>
       <c r="J132" s="3"/>
       <c r="K132" s="2"/>
       <c r="L132" s="3"/>
       <c r="M132" s="2"/>
       <c r="N132" s="3"/>
-      <c r="O132" s="1">
-        <v>320</v>
-      </c>
-      <c r="P132" s="1">
-        <v>320</v>
-      </c>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
-      <c r="R132" s="1">
-        <v>320</v>
-      </c>
+      <c r="R132" s="1"/>
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
@@ -6086,17 +6892,18 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
-    </row>
-    <row r="133" spans="1:26">
-      <c r="A133" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C133" s="2">
-        <v>160</v>
-      </c>
+      <c r="AA132" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="133" hidden="1" spans="1:27">
+      <c r="A133" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C133" s="2"/>
       <c r="D133" s="3"/>
       <c r="E133" s="2"/>
       <c r="F133" s="3"/>
@@ -6106,85 +6913,85 @@
       <c r="J133" s="3"/>
       <c r="K133" s="2"/>
       <c r="L133" s="3"/>
-      <c r="M133" s="2">
-        <v>160</v>
-      </c>
+      <c r="M133" s="2"/>
       <c r="N133" s="3"/>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
+      <c r="Q133" s="1">
+        <v>1920</v>
+      </c>
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
-      <c r="V133" s="1">
-        <v>320</v>
-      </c>
-      <c r="W133" s="1"/>
+      <c r="V133" s="1"/>
+      <c r="W133" s="1">
+        <v>640</v>
+      </c>
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
-    </row>
-    <row r="134" spans="1:26">
-      <c r="A134" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>274</v>
+      <c r="AA133" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="134" hidden="1" spans="1:27">
+      <c r="A134" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
       <c r="E134" s="2"/>
       <c r="F134" s="3"/>
       <c r="G134" s="2"/>
-      <c r="H134" s="3">
-        <v>960</v>
-      </c>
+      <c r="H134" s="3"/>
       <c r="I134" s="2"/>
       <c r="J134" s="3"/>
       <c r="K134" s="2"/>
       <c r="L134" s="3"/>
       <c r="M134" s="2"/>
       <c r="N134" s="3"/>
-      <c r="O134" s="1"/>
+      <c r="O134" s="1">
+        <v>1920</v>
+      </c>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
-      <c r="R134" s="1"/>
+      <c r="R134" s="1">
+        <v>1920</v>
+      </c>
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
-      <c r="V134" s="1">
-        <v>160</v>
-      </c>
+      <c r="V134" s="1"/>
       <c r="W134" s="1"/>
-      <c r="X134" s="1">
-        <v>160</v>
-      </c>
+      <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
-    </row>
-    <row r="135" spans="1:26">
-      <c r="A135" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C135" s="2"/>
+      <c r="AA134" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="135" hidden="1" spans="1:27">
+      <c r="A135" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C135" s="2">
+        <v>640</v>
+      </c>
       <c r="D135" s="3"/>
       <c r="E135" s="2"/>
       <c r="F135" s="3"/>
-      <c r="G135" s="2">
-        <v>160</v>
-      </c>
+      <c r="G135" s="2"/>
       <c r="H135" s="3"/>
-      <c r="I135" s="2">
-        <v>320</v>
-      </c>
+      <c r="I135" s="2"/>
       <c r="J135" s="3"/>
-      <c r="K135" s="2">
-        <v>160</v>
-      </c>
+      <c r="K135" s="2"/>
       <c r="L135" s="3"/>
       <c r="M135" s="2"/>
       <c r="N135" s="3"/>
@@ -6197,16 +7004,21 @@
       <c r="U135" s="1"/>
       <c r="V135" s="1"/>
       <c r="W135" s="1"/>
-      <c r="X135" s="1"/>
+      <c r="X135" s="1">
+        <v>320</v>
+      </c>
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
-    </row>
-    <row r="136" spans="1:26">
-      <c r="A136" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>278</v>
+      <c r="AA135" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="136" hidden="1" spans="1:27">
+      <c r="A136" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>222</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
@@ -6220,31 +7032,38 @@
       <c r="L136" s="3"/>
       <c r="M136" s="2"/>
       <c r="N136" s="3"/>
-      <c r="O136" s="1"/>
-      <c r="P136" s="1"/>
+      <c r="O136" s="1">
+        <v>320</v>
+      </c>
+      <c r="P136" s="1">
+        <v>320</v>
+      </c>
       <c r="Q136" s="1"/>
-      <c r="R136" s="1"/>
-      <c r="S136" s="1">
-        <v>1920</v>
-      </c>
+      <c r="R136" s="1">
+        <v>320</v>
+      </c>
+      <c r="S136" s="1"/>
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
-      <c r="X136" s="1">
-        <v>640</v>
-      </c>
+      <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
-    </row>
-    <row r="137" spans="1:26">
-      <c r="A137" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C137" s="2"/>
+      <c r="AA136" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="137" hidden="1" spans="1:27">
+      <c r="A137" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C137" s="2">
+        <v>160</v>
+      </c>
       <c r="D137" s="3"/>
       <c r="E137" s="2"/>
       <c r="F137" s="3"/>
@@ -6252,39 +7071,38 @@
       <c r="H137" s="3"/>
       <c r="I137" s="2"/>
       <c r="J137" s="3"/>
-      <c r="K137" s="2"/>
+      <c r="K137" s="2">
+        <v>960</v>
+      </c>
       <c r="L137" s="3"/>
       <c r="M137" s="2"/>
       <c r="N137" s="3"/>
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
-      <c r="Q137" s="1">
-        <v>1920</v>
-      </c>
+      <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
       <c r="V137" s="1"/>
-      <c r="W137" s="1">
-        <v>640</v>
-      </c>
+      <c r="W137" s="1"/>
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
-    </row>
-    <row r="138" spans="1:26">
-      <c r="A138" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>282</v>
+      <c r="AA137" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="138" hidden="1" spans="1:27">
+      <c r="A138" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="2">
-        <v>320</v>
-      </c>
+      <c r="E138" s="2"/>
       <c r="F138" s="3"/>
       <c r="G138" s="2"/>
       <c r="H138" s="3"/>
@@ -6292,31 +7110,34 @@
       <c r="J138" s="3"/>
       <c r="K138" s="2"/>
       <c r="L138" s="3"/>
-      <c r="M138" s="2">
-        <v>960</v>
-      </c>
+      <c r="M138" s="2"/>
       <c r="N138" s="3"/>
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
-      <c r="S138" s="1"/>
+      <c r="S138" s="1">
+        <v>160</v>
+      </c>
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
-      <c r="V138" s="1"/>
+      <c r="V138" s="1">
+        <v>1920</v>
+      </c>
       <c r="W138" s="1"/>
-      <c r="X138" s="1">
-        <v>160</v>
-      </c>
+      <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
-    </row>
-    <row r="139" spans="1:26">
-      <c r="A139" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>284</v>
+      <c r="AA138" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="139" hidden="1" spans="1:27">
+      <c r="A139" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>226</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
@@ -6330,29 +7151,32 @@
       <c r="L139" s="3"/>
       <c r="M139" s="2"/>
       <c r="N139" s="3"/>
-      <c r="O139" s="1">
-        <v>1920</v>
-      </c>
+      <c r="O139" s="1"/>
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
-      <c r="R139" s="1">
+      <c r="R139" s="1"/>
+      <c r="S139" s="1">
         <v>1920</v>
       </c>
-      <c r="S139" s="1"/>
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
       <c r="V139" s="1"/>
       <c r="W139" s="1"/>
-      <c r="X139" s="1"/>
+      <c r="X139" s="1">
+        <v>640</v>
+      </c>
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
-    </row>
-    <row r="140" spans="1:26">
-      <c r="A140" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>286</v>
+      <c r="AA139" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="140" hidden="1" spans="1:27">
+      <c r="A140" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>228</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
@@ -6384,9 +7208,20 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
+      <c r="AA140" t="s">
+        <v>194</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AA140" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="以杀止杀"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>